--- a/SlpGroupInfo4DC.xlsx
+++ b/SlpGroupInfo4DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2160" windowWidth="20260" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="duration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="526">
   <si>
     <t>SubjId</t>
   </si>
@@ -421,411 +421,6 @@
     <t>Owl</t>
   </si>
   <si>
-    <t>['caffeineD', 'sweetF', 'dairyP', 'grainP', 'eggP', 'vegetables', 'nutP', 'seafood', 'fruitP', 'meatP', 'compositeP', 'alcoholD', 'starchyP']</t>
-  </si>
-  <si>
-    <t>[1, 3, 3, 2, 0, 2, 0, 0, 0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 2, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 2, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 2, 0, 1, 0, 0, 0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 2, 0, 0, 0, 1, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 2, 0, 1, 0, 0, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 3, 0, 1, 0, 0, 0, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 1, 0, 0, 0, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 4, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 1, 0, 1, 1, 1, 2, 0, 1, 0, 2]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 1, 0, 0, 0, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 1, 0, 0, 0, 2, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 0, 0, 0, 0, 1, 0, 0, 3, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 1, 0, 2, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 2, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 2, 1, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 3, 1, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 3, 1, 3, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 2]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 2]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 1, 2, 0, 0, 0, 1, 2, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 0, 0, 0, 0, 0, 2, 2, 3, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 0, 0, 0, 1, 2, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 2]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 2, 0, 0, 0, 2, 0, 0, 2]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0, 0, 1, 0, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 4, 0, 0, 0, 1, 0, 1, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 2, 1, 0, 1, 0, 1, 1, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 2, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 2, 0, 0, 0, 0, 0, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 2, 0, 1, 0, 0, 0, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 1, 0, 2, 0, 0, 0, 1, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 2, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 2, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0, 0, 0, 0, 0, 2, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 1, 0, 0, 2, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 2, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 3, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 3, 0, 1, 0, 0, 2, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 1, 2, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 1, 0, 0, 0, 0, 1, 1, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 3, 2, 0, 1, 1, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 3, 1, 0, 2, 0, 1, 2, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 2, 0, 1, 0, 0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 2, 1, 2, 0, 2, 1, 1, 1, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 2, 0, 1, 0, 0, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 3, 0, 1, 1, 0, 1, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 3, 1, 3, 0, 1, 1, 0, 2, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 0, 1, 0, 0, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
     <t>[0, 0, 0, 0, 0, 0, 0, 1]</t>
   </si>
   <si>
@@ -1381,226 +976,628 @@
     <t>[0, 1, 0, 0, 1, 0, 0, 2]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 2, 0, 1, 0, 0, 1, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 2, 2, 0, 1, 0, 0, 1, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 2, 1, 1, 1, 0, 0, 0, 1, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 2, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 2, 0, 1, 0, 0, 1, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 2, 2, 0, 0, 0, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 3, 2, 0, 1, 0, 0, 3, 2, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 1, 0, 1, 0, 1, 0, 2, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 2, 0, 0, 0, 0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1, 0, 0, 1, 0, 1, 1, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 1, 0, 1, 0, 1, 1, 2, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 0, 0, 0, 0, 2, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 1, 0, 0, 0, 2, 1, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 1, 1, 0, 0, 1, 1, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 1, 1, 0, 0, 2, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 2, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 2]</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 0, 0, 1, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 2, 0, 0, 1, 1, 0, 0, 0, 0, 3, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1, 1, 0, 1, 1, 0, 0, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 2, 2, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 2, 0, 0, 0, 1, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 1, 0, 1, 0, 2, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 2, 0, 0, 0, 1, 3, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 2, 0, 0, 0, 0, 2, 0, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 2, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 2, 2, 0, 1, 0, 0, 1, 0, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 0, 0, 1, 0, 0, 1, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 2, 2, 0, 2, 2, 0, 2, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 1, 0, 0, 1, 0, 2, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 3, 0, 1, 1, 0, 2, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 2, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 2, 2, 1, 0, 1, 1, 0, 1, 0, 4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1, 1, 1, 0, 0, 1, 2, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 1, 0, 0, 2, 0, 2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 1, 0, 0, 2, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 2, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0]</t>
+    <t>['caffeineD', 'snack', 'dairyP', 'grainP', 'eggP', 'alcoholD', 'seafood', 'fruitP', 'meatP', 'compositeP', 'vegetables', 'starchyP']</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 3, 3, 2, 0, 0, 0, 0, 1, 0, 2, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 2, 0, 1, 0, 1, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 2, 2, 0, 1, 0, 1, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 2, 1, 1, 1, 0, 0, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 2, 0, 0, 0, 0, 1, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 2, 0, 0, 0, 1, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 1, 0, 0, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 0, 0, 0, 2, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 2, 2, 0, 0, 0, 1, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 2, 0, 0, 0, 3, 2, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 0, 1, 0, 0, 1, 0, 2, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 0, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 2, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 2, 0, 0, 0, 0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1, 0, 0, 0, 1, 1, 0, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 0, 1, 0, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 2, 0, 0, 0, 0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 2, 0, 0, 0, 0, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 2, 0, 0, 1, 0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 2, 0, 0, 0, 0, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 3, 0, 0, 0, 0, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0, 1, 0, 1, 1, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 1, 0, 0, 1, 1, 2, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 0, 0, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 1, 0, 0, 0, 0, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0, 0, 0, 2, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 1, 1, 4, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 1, 0, 0, 2, 1, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 1, 0, 0, 1, 1, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 0, 1, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 0, 0, 0, 0, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 1, 0, 0, 1, 2, 0, 1, 1, 2]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 1, 0, 0, 0, 1, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 0, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 0, 0, 0, 2, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 0, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 0, 0, 0, 1, 0, 0, 3, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 2, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 2, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1, 1, 0, 2, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 2, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 3, 1, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 3, 1, 3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 1, 0, 1, 0, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 1, 1, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 2]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 2]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 2, 0, 1, 0, 0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 1, 2, 0, 1, 1, 2, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 2, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 0, 0, 0, 2, 2, 3, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 0, 1, 2, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 0, 0, 1, 0, 1, 1, 0, 2]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 0, 0, 2, 0, 2, 2]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 0, 0, 0, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1, 0, 0, 0, 2, 0, 0, 2]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 1, 0, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 2, 0, 0, 1, 0, 0, 0, 0, 3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 0, 0, 0, 1, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 1, 0, 1, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 0, 0, 0, 0, 0, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 0, 0, 0, 1, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 4, 0, 0, 0, 1, 1, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1, 1, 0, 1, 0, 0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 2, 2, 0, 0, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 2, 0, 1, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 2, 1, 0, 0, 1, 1, 0, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 2, 1, 0, 1, 0, 0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 2, 0, 1, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 2, 0, 0, 0, 0, 0, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 1, 0, 0, 0, 0, 1, 3, 2, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 2, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 0, 1, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 1, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 0, 1, 2, 2, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 2, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 0, 0, 0, 2, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0, 0, 0, 0, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 1, 0, 0, 0, 0, 0, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 0, 2, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 1, 0, 0, 2, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 2, 0, 0, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 1, 3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 0, 0, 0, 0, 0, 1, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 1, 1, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 1, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 1, 1, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 3, 0, 0, 0, 2, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 2, 0, 0, 1, 3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 2, 0, 1, 0, 2, 0, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 2, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 2, 0, 1, 0, 1, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 1, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 0, 0, 0, 0, 1, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 1, 2, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 1, 0, 3, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 0, 0, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 2, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 1, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 2, 0, 1, 0, 0, 0, 1, 1, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 2, 0, 0, 0, 1, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 3, 2, 2, 0, 0, 0, 2, 0, 2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 3, 1, 0, 0, 1, 2, 0, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 2, 1, 0, 0, 0, 2, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 2, 0, 0, 0, 0, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 2, 0, 0, 1, 1, 0, 0, 2, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 3, 0, 0, 0, 2, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 2, 0, 0, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0, 0, 0, 1, 0, 2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 2, 1, 3, 0, 1, 0, 1, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 4, 1, 3, 0, 0, 0, 2, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 3, 2, 1, 0, 0, 0, 1, 0, 4, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 1, 0, 0, 1, 2, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 2, 0, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1, 0, 0, 0, 1, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 2, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 2, 0, 0, 1, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 2, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0]</t>
   </si>
 </sst>
 </file>
@@ -1807,11 +1804,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2126204888"/>
-        <c:axId val="-2127536296"/>
+        <c:axId val="-2123088744"/>
+        <c:axId val="-2122471416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126204888"/>
+        <c:axId val="-2123088744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1851,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127536296"/>
+        <c:crossAx val="-2122471416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1862,7 +1859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127536296"/>
+        <c:axId val="-2122471416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1910,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126204888"/>
+        <c:crossAx val="-2123088744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2830,13 +2827,10 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="6" width="10.83203125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -2890,10 +2884,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>453</v>
+        <v>319</v>
       </c>
       <c r="G2" s="1">
         <v>7.5211110000000003</v>
@@ -2926,13 +2920,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="G3" s="1">
         <v>7.71</v>
@@ -2965,13 +2959,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="G4" s="1">
         <v>10.491111</v>
@@ -3004,13 +2998,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
       <c r="G5" s="1">
         <v>8.2922220000000006</v>
@@ -3043,13 +3037,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="G6" s="1">
         <v>7.8766670000000003</v>
@@ -3082,13 +3076,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>457</v>
+        <v>324</v>
       </c>
       <c r="G7" s="1">
         <v>7.2411110000000001</v>
@@ -3121,13 +3115,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="G8" s="1">
         <v>7.951111</v>
@@ -3160,13 +3154,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="G9" s="1">
         <v>7.1366670000000001</v>
@@ -3199,13 +3193,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="G10" s="1">
         <v>6.9388889999999996</v>
@@ -3238,13 +3232,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="G11" s="1">
         <v>8.3233329999999999</v>
@@ -3277,13 +3271,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="G12" s="1">
         <v>8.4077780000000004</v>
@@ -3316,13 +3310,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="G13" s="1">
         <v>7.8533330000000001</v>
@@ -3358,10 +3352,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="G14" s="1">
         <v>9.9488889999999994</v>
@@ -3394,13 +3388,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="G15" s="1">
         <v>8.9911110000000001</v>
@@ -3433,13 +3427,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="G16" s="1">
         <v>12.334444</v>
@@ -3472,13 +3466,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>142</v>
+        <v>334</v>
       </c>
       <c r="G17" s="1">
         <v>12.095556</v>
@@ -3511,13 +3505,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>460</v>
+        <v>335</v>
       </c>
       <c r="G18" s="1">
         <v>9.7555560000000003</v>
@@ -3550,13 +3544,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>461</v>
+        <v>336</v>
       </c>
       <c r="G19" s="1">
         <v>10.98</v>
@@ -3589,13 +3583,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>462</v>
+        <v>337</v>
       </c>
       <c r="G20" s="1">
         <v>8.9600000000000009</v>
@@ -3628,13 +3622,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="G21" s="1">
         <v>7.7511109999999999</v>
@@ -3667,13 +3661,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>463</v>
+        <v>339</v>
       </c>
       <c r="G22" s="1">
         <v>11.011111</v>
@@ -3706,13 +3700,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>464</v>
+        <v>340</v>
       </c>
       <c r="G23" s="1">
         <v>8.2722219999999993</v>
@@ -3745,13 +3739,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>465</v>
+        <v>341</v>
       </c>
       <c r="G24" s="1">
         <v>8.5844439999999995</v>
@@ -3784,13 +3778,13 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>466</v>
+        <v>342</v>
       </c>
       <c r="G25" s="1">
         <v>8.4911110000000001</v>
@@ -3823,13 +3817,13 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="G26" s="1">
         <v>8.6788889999999999</v>
@@ -3862,13 +3856,13 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="G27" s="1">
         <v>9.4811110000000003</v>
@@ -3901,13 +3895,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="G28" s="1">
         <v>8.9388889999999996</v>
@@ -3940,13 +3934,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="G29" s="1">
         <v>8.1366669999999992</v>
@@ -3979,13 +3973,13 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="G30" s="1">
         <v>8.6266669999999994</v>
@@ -4018,13 +4012,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="G31" s="1">
         <v>8.7100000000000009</v>
@@ -4057,13 +4051,13 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
       <c r="G32" s="1">
         <v>7.97</v>
@@ -4096,13 +4090,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="G33" s="1">
         <v>7.4844439999999999</v>
@@ -4135,13 +4129,13 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="G34" s="1">
         <v>8.7411110000000001</v>
@@ -4174,13 +4168,13 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="G35" s="1">
         <v>8.5422220000000006</v>
@@ -4213,13 +4207,13 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="G36" s="1">
         <v>9.1155559999999998</v>
@@ -4252,13 +4246,13 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
       <c r="G37" s="1">
         <v>9.5011109999999999</v>
@@ -4291,13 +4285,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="G38" s="1">
         <v>8.0533330000000003</v>
@@ -4333,10 +4327,10 @@
         <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="G39" s="1">
         <v>8.0111109999999996</v>
@@ -4369,13 +4363,13 @@
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="G40" s="1">
         <v>7.0333329999999998</v>
@@ -4408,13 +4402,13 @@
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>467</v>
+        <v>358</v>
       </c>
       <c r="G41" s="1">
         <v>10.282222000000001</v>
@@ -4447,13 +4441,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>468</v>
+        <v>359</v>
       </c>
       <c r="G42" s="1">
         <v>7.83</v>
@@ -4486,13 +4480,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>159</v>
+        <v>360</v>
       </c>
       <c r="G43" s="1">
         <v>5.8233329999999999</v>
@@ -4525,13 +4519,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="G44" s="1">
         <v>9.0322220000000009</v>
@@ -4564,13 +4558,13 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>469</v>
+        <v>362</v>
       </c>
       <c r="G45" s="1">
         <v>8.0011109999999999</v>
@@ -4603,13 +4597,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="G46" s="1">
         <v>9.3144439999999999</v>
@@ -4642,13 +4636,13 @@
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="G47" s="1">
         <v>8.6988889999999994</v>
@@ -4684,10 +4678,10 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="G48" s="1">
         <v>9.0844439999999995</v>
@@ -4720,13 +4714,13 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>471</v>
+        <v>366</v>
       </c>
       <c r="G49" s="1">
         <v>10.981111</v>
@@ -4759,13 +4753,13 @@
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>163</v>
+        <v>367</v>
       </c>
       <c r="G50" s="1">
         <v>8.3755559999999996</v>
@@ -4798,13 +4792,13 @@
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="G51" s="1">
         <v>6.47</v>
@@ -4837,13 +4831,13 @@
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="G52" s="1">
         <v>8.1577780000000004</v>
@@ -4876,13 +4870,13 @@
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>166</v>
+        <v>370</v>
       </c>
       <c r="G53" s="1">
         <v>11.015556</v>
@@ -4915,13 +4909,13 @@
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="G54" s="1">
         <v>9.3866669999999992</v>
@@ -4954,13 +4948,13 @@
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
       <c r="G55" s="1">
         <v>8.2511109999999999</v>
@@ -4993,13 +4987,13 @@
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="G56" s="1">
         <v>10.584444</v>
@@ -5032,13 +5026,13 @@
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="G57" s="1">
         <v>9.2922220000000006</v>
@@ -5071,13 +5065,13 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>342</v>
+        <v>207</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="G58" s="1">
         <v>9.0111109999999996</v>
@@ -5110,13 +5104,13 @@
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>343</v>
+        <v>208</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="G59" s="1">
         <v>8.3133330000000001</v>
@@ -5149,13 +5143,13 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>344</v>
+        <v>209</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="G60" s="1">
         <v>7.6466669999999999</v>
@@ -5188,13 +5182,13 @@
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>171</v>
+        <v>378</v>
       </c>
       <c r="G61" s="1">
         <v>5.355556</v>
@@ -5230,10 +5224,10 @@
         <v>60</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>475</v>
+        <v>379</v>
       </c>
       <c r="G62" s="1">
         <v>7.6977779999999996</v>
@@ -5269,10 +5263,10 @@
         <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="G63" s="1">
         <v>7.1566669999999997</v>
@@ -5305,13 +5299,13 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="G64" s="1">
         <v>8.2822220000000009</v>
@@ -5344,13 +5338,13 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>172</v>
+        <v>381</v>
       </c>
       <c r="G65" s="1">
         <v>6.927778</v>
@@ -5383,13 +5377,13 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="G66" s="1">
         <v>7.7077780000000002</v>
@@ -5422,13 +5416,13 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
       <c r="G67" s="1">
         <v>7.2722220000000002</v>
@@ -5461,13 +5455,13 @@
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="G68" s="1">
         <v>10.220000000000001</v>
@@ -5500,13 +5494,13 @@
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="G69" s="1">
         <v>8.1877779999999998</v>
@@ -5539,13 +5533,13 @@
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="G70" s="1">
         <v>6.855556</v>
@@ -5578,13 +5572,13 @@
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="G71" s="1">
         <v>8.3455560000000002</v>
@@ -5617,13 +5611,13 @@
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="G72" s="1">
         <v>8.6577780000000004</v>
@@ -5656,13 +5650,13 @@
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>352</v>
+        <v>217</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="G73" s="1">
         <v>9.2200000000000006</v>
@@ -5695,13 +5689,13 @@
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>178</v>
+        <v>389</v>
       </c>
       <c r="G74" s="1">
         <v>8.5533330000000003</v>
@@ -5734,13 +5728,13 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>179</v>
+        <v>390</v>
       </c>
       <c r="G75" s="1">
         <v>8.0222219999999993</v>
@@ -5773,13 +5767,13 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="G76" s="1">
         <v>10.605556</v>
@@ -5812,13 +5806,13 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="G77" s="1">
         <v>9.0322220000000009</v>
@@ -5851,13 +5845,13 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="G78" s="1">
         <v>7.94</v>
@@ -5890,13 +5884,13 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="G79" s="1">
         <v>7.7611109999999996</v>
@@ -5929,13 +5923,13 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="G80" s="1">
         <v>7.8766670000000003</v>
@@ -5968,13 +5962,13 @@
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>182</v>
+        <v>393</v>
       </c>
       <c r="G81" s="1">
         <v>8.5633330000000001</v>
@@ -6007,13 +6001,13 @@
         <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="G82" s="1">
         <v>7.1888889999999996</v>
@@ -6046,13 +6040,13 @@
         <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>357</v>
+        <v>222</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="G83" s="1">
         <v>7.9488890000000003</v>
@@ -6085,13 +6079,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>358</v>
+        <v>223</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>184</v>
+        <v>395</v>
       </c>
       <c r="G84" s="1">
         <v>7.1577780000000004</v>
@@ -6124,13 +6118,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>359</v>
+        <v>224</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
       <c r="G85" s="1">
         <v>8.8655559999999998</v>
@@ -6163,13 +6157,13 @@
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>186</v>
+        <v>397</v>
       </c>
       <c r="G86" s="1">
         <v>9.3033330000000003</v>
@@ -6202,13 +6196,13 @@
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
       <c r="G87" s="1">
         <v>7.2922219999999998</v>
@@ -6241,13 +6235,13 @@
         <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="G88" s="1">
         <v>5.5744439999999997</v>
@@ -6283,10 +6277,10 @@
         <v>21</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>188</v>
+        <v>400</v>
       </c>
       <c r="G89" s="1">
         <v>7.2922219999999998</v>
@@ -6319,13 +6313,13 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="G90" s="1">
         <v>7.4388889999999996</v>
@@ -6358,13 +6352,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>363</v>
+        <v>228</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="G91" s="1">
         <v>7.6988890000000003</v>
@@ -6397,13 +6391,13 @@
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="G92" s="1">
         <v>7.7722220000000002</v>
@@ -6436,13 +6430,13 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>191</v>
+        <v>404</v>
       </c>
       <c r="G93" s="1">
         <v>8.1155559999999998</v>
@@ -6475,13 +6469,13 @@
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>366</v>
+        <v>231</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="G94" s="1">
         <v>7.1255559999999996</v>
@@ -6514,13 +6508,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>367</v>
+        <v>232</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>483</v>
+        <v>406</v>
       </c>
       <c r="G95" s="1">
         <v>7.72</v>
@@ -6553,13 +6547,13 @@
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="G96" s="1">
         <v>8.3444439999999993</v>
@@ -6592,13 +6586,13 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>369</v>
+        <v>234</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="G97" s="1">
         <v>9.3444439999999993</v>
@@ -6631,13 +6625,13 @@
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>370</v>
+        <v>235</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="G98" s="1">
         <v>9.0111109999999996</v>
@@ -6673,10 +6667,10 @@
         <v>62</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>485</v>
+        <v>410</v>
       </c>
       <c r="G99" s="1">
         <v>8.5955560000000002</v>
@@ -6709,13 +6703,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>371</v>
+        <v>236</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
       <c r="G100" s="1">
         <v>10.001111</v>
@@ -6748,13 +6742,13 @@
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>195</v>
+        <v>412</v>
       </c>
       <c r="G101" s="1">
         <v>7.8866670000000001</v>
@@ -6787,13 +6781,13 @@
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>196</v>
+        <v>413</v>
       </c>
       <c r="G102" s="1">
         <v>6.7511109999999999</v>
@@ -6826,13 +6820,13 @@
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="G103" s="1">
         <v>8.0222219999999993</v>
@@ -6868,10 +6862,10 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="G104" s="1">
         <v>5.782222</v>
@@ -6904,13 +6898,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>199</v>
+        <v>416</v>
       </c>
       <c r="G105" s="1">
         <v>8.1155559999999998</v>
@@ -6943,13 +6937,13 @@
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>283</v>
+        <v>148</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
       <c r="G106" s="1">
         <v>8.427778</v>
@@ -6982,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>373</v>
+        <v>238</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="G107" s="1">
         <v>7.927778</v>
@@ -7021,13 +7015,13 @@
         <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>374</v>
+        <v>239</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="G108" s="1">
         <v>8.5744439999999997</v>
@@ -7060,13 +7054,13 @@
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="G109" s="1">
         <v>8.5955560000000002</v>
@@ -7099,13 +7093,13 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="G110" s="1">
         <v>6.9188890000000001</v>
@@ -7138,13 +7132,13 @@
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="G111" s="1">
         <v>9.6466670000000008</v>
@@ -7180,10 +7174,10 @@
         <v>83</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="G112" s="1">
         <v>7.7611109999999996</v>
@@ -7216,13 +7210,13 @@
         <v>6</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>376</v>
+        <v>241</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>206</v>
+        <v>424</v>
       </c>
       <c r="G113" s="1">
         <v>6.7511109999999999</v>
@@ -7255,13 +7249,13 @@
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>377</v>
+        <v>242</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>207</v>
+        <v>425</v>
       </c>
       <c r="G114" s="1">
         <v>6.3444440000000002</v>
@@ -7294,13 +7288,13 @@
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>208</v>
+        <v>426</v>
       </c>
       <c r="G115" s="1">
         <v>8.3866669999999992</v>
@@ -7333,13 +7327,13 @@
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>379</v>
+        <v>244</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>209</v>
+        <v>427</v>
       </c>
       <c r="G116" s="1">
         <v>6.81</v>
@@ -7372,13 +7366,13 @@
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="G117" s="1">
         <v>8.2511109999999999</v>
@@ -7411,13 +7405,13 @@
         <v>6</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>381</v>
+        <v>246</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>210</v>
+        <v>429</v>
       </c>
       <c r="G118" s="1">
         <v>9.3977780000000006</v>
@@ -7450,13 +7444,13 @@
         <v>6</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="G119" s="1">
         <v>7.22</v>
@@ -7489,13 +7483,13 @@
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>382</v>
+        <v>247</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="G120" s="1">
         <v>6.1466669999999999</v>
@@ -7528,13 +7522,13 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>383</v>
+        <v>248</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="G121" s="1">
         <v>13.156667000000001</v>
@@ -7567,13 +7561,13 @@
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>211</v>
+        <v>433</v>
       </c>
       <c r="G122" s="1">
         <v>9.9177780000000002</v>
@@ -7606,13 +7600,13 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>384</v>
+        <v>249</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="G123" s="1">
         <v>7.1877779999999998</v>
@@ -7645,13 +7639,13 @@
         <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>385</v>
+        <v>250</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>213</v>
+        <v>435</v>
       </c>
       <c r="G124" s="1">
         <v>8.9377779999999998</v>
@@ -7684,13 +7678,13 @@
         <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="G125" s="1">
         <v>8.4700000000000006</v>
@@ -7723,13 +7717,13 @@
         <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>386</v>
+        <v>251</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="G126" s="1">
         <v>9.2922220000000006</v>
@@ -7762,13 +7756,13 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>387</v>
+        <v>252</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="G127" s="1">
         <v>7.8133330000000001</v>
@@ -7801,13 +7795,13 @@
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>215</v>
+        <v>439</v>
       </c>
       <c r="G128" s="1">
         <v>8.6366669999999992</v>
@@ -7840,13 +7834,13 @@
         <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>389</v>
+        <v>254</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>216</v>
+        <v>440</v>
       </c>
       <c r="G129" s="1">
         <v>8.8344439999999995</v>
@@ -7879,13 +7873,13 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>217</v>
+        <v>441</v>
       </c>
       <c r="G130" s="1">
         <v>7.9755560000000001</v>
@@ -7918,13 +7912,13 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="G131" s="1">
         <v>8.2622219999999995</v>
@@ -7957,13 +7951,13 @@
         <v>6</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>392</v>
+        <v>257</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="G132" s="1">
         <v>7.1155559999999998</v>
@@ -7996,13 +7990,13 @@
         <v>6</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="G133" s="1">
         <v>6.3755559999999996</v>
@@ -8035,13 +8029,13 @@
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="G134" s="1">
         <v>6.2</v>
@@ -8074,13 +8068,13 @@
         <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="G135" s="1">
         <v>10.687778</v>
@@ -8113,13 +8107,13 @@
         <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="G136" s="1">
         <v>8.1366669999999992</v>
@@ -8152,13 +8146,13 @@
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="G137" s="1">
         <v>8.9488889999999994</v>
@@ -8191,13 +8185,13 @@
         <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>398</v>
+        <v>263</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G138" s="1">
         <v>6.3344440000000004</v>
@@ -8230,13 +8224,13 @@
         <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="G139" s="1">
         <v>7.6577780000000004</v>
@@ -8269,13 +8263,13 @@
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>224</v>
+        <v>451</v>
       </c>
       <c r="G140" s="1">
         <v>8.01</v>
@@ -8308,13 +8302,13 @@
         <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>225</v>
+        <v>452</v>
       </c>
       <c r="G141" s="1">
         <v>8.5111109999999996</v>
@@ -8347,13 +8341,13 @@
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="G142" s="1">
         <v>9.4955560000000006</v>
@@ -8386,13 +8380,13 @@
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>402</v>
+        <v>267</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="G143" s="1">
         <v>9.1677780000000002</v>
@@ -8425,13 +8419,13 @@
         <v>6</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>228</v>
+        <v>455</v>
       </c>
       <c r="G144" s="1">
         <v>7.7311110000000003</v>
@@ -8464,13 +8458,13 @@
         <v>6</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="G145" s="1">
         <v>8.5744439999999997</v>
@@ -8503,13 +8497,13 @@
         <v>6</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>229</v>
+        <v>456</v>
       </c>
       <c r="G146" s="1">
         <v>7.1577780000000004</v>
@@ -8542,13 +8536,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>404</v>
+        <v>269</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="G147" s="1">
         <v>9.0733329999999999</v>
@@ -8581,13 +8575,13 @@
         <v>6</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="G148" s="1">
         <v>8.0633330000000001</v>
@@ -8620,13 +8614,13 @@
         <v>6</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>231</v>
+        <v>458</v>
       </c>
       <c r="G149" s="1">
         <v>7.8133330000000001</v>
@@ -8659,13 +8653,13 @@
         <v>6</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>406</v>
+        <v>271</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>232</v>
+        <v>459</v>
       </c>
       <c r="G150" s="1">
         <v>9.4488889999999994</v>
@@ -8698,13 +8692,13 @@
         <v>6</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="G151" s="1">
         <v>8.927778</v>
@@ -8737,13 +8731,13 @@
         <v>6</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>408</v>
+        <v>273</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="G152" s="1">
         <v>5.782222</v>
@@ -8776,13 +8770,13 @@
         <v>6</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>409</v>
+        <v>274</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="G153" s="1">
         <v>10.626666999999999</v>
@@ -8815,13 +8809,13 @@
         <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="G154" s="1">
         <v>10.188889</v>
@@ -8857,10 +8851,10 @@
         <v>60</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="G155" s="1">
         <v>10.313333</v>
@@ -8896,10 +8890,10 @@
         <v>82</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="G156" s="1">
         <v>8.7511109999999999</v>
@@ -8932,13 +8926,13 @@
         <v>6</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="G157" s="1">
         <v>7.96</v>
@@ -8971,13 +8965,13 @@
         <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>410</v>
+        <v>275</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="G158" s="1">
         <v>8.73</v>
@@ -9010,13 +9004,13 @@
         <v>6</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>235</v>
+        <v>466</v>
       </c>
       <c r="G159" s="1">
         <v>8.3344439999999995</v>
@@ -9049,13 +9043,13 @@
         <v>6</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>236</v>
+        <v>467</v>
       </c>
       <c r="G160" s="1">
         <v>10.813333</v>
@@ -9088,13 +9082,13 @@
         <v>6</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="G161" s="1">
         <v>11.303333</v>
@@ -9127,13 +9121,13 @@
         <v>6</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>411</v>
+        <v>276</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="G162" s="1">
         <v>11.928889</v>
@@ -9166,13 +9160,13 @@
         <v>6</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="G163" s="1">
         <v>12.553333</v>
@@ -9205,13 +9199,13 @@
         <v>6</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>294</v>
+        <v>159</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>237</v>
+        <v>470</v>
       </c>
       <c r="G164" s="1">
         <v>9.7177779999999991</v>
@@ -9244,13 +9238,13 @@
         <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>238</v>
+        <v>471</v>
       </c>
       <c r="G165" s="1">
         <v>7.3244439999999997</v>
@@ -9283,13 +9277,13 @@
         <v>6</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>239</v>
+        <v>472</v>
       </c>
       <c r="G166" s="1">
         <v>8.5111109999999996</v>
@@ -9322,13 +9316,13 @@
         <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="G167" s="1">
         <v>7.104444</v>
@@ -9361,13 +9355,13 @@
         <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>240</v>
+        <v>474</v>
       </c>
       <c r="G168" s="1">
         <v>8.177778</v>
@@ -9400,13 +9394,13 @@
         <v>6</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>241</v>
+        <v>475</v>
       </c>
       <c r="G169" s="1">
         <v>7.72</v>
@@ -9439,13 +9433,13 @@
         <v>6</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>242</v>
+        <v>476</v>
       </c>
       <c r="G170" s="1">
         <v>6.8511110000000004</v>
@@ -9478,13 +9472,13 @@
         <v>6</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>243</v>
+        <v>477</v>
       </c>
       <c r="G171" s="1">
         <v>10.687778</v>
@@ -9517,13 +9511,13 @@
         <v>6</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>417</v>
+        <v>282</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="G172" s="1">
         <v>9.177778</v>
@@ -9556,13 +9550,13 @@
         <v>6</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>418</v>
+        <v>283</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G173" s="1">
         <v>8.3866669999999992</v>
@@ -9595,13 +9589,13 @@
         <v>6</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>419</v>
+        <v>284</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="G174" s="1">
         <v>5.855556</v>
@@ -9634,13 +9628,13 @@
         <v>6</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="G175" s="1">
         <v>10.501111</v>
@@ -9673,13 +9667,13 @@
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="G176" s="1">
         <v>8.1677780000000002</v>
@@ -9712,13 +9706,13 @@
         <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="G177" s="1">
         <v>7.354444</v>
@@ -9751,13 +9745,13 @@
         <v>6</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>404</v>
+        <v>269</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>244</v>
+        <v>484</v>
       </c>
       <c r="G178" s="1">
         <v>7.8033330000000003</v>
@@ -9790,13 +9784,13 @@
         <v>6</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>422</v>
+        <v>287</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>245</v>
+        <v>485</v>
       </c>
       <c r="G179" s="1">
         <v>8.1999999999999993</v>
@@ -9829,13 +9823,13 @@
         <v>6</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="G180" s="1">
         <v>8.4288889999999999</v>
@@ -9868,13 +9862,13 @@
         <v>6</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>424</v>
+        <v>289</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="G181" s="1">
         <v>9.855556</v>
@@ -9907,13 +9901,13 @@
         <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="G182" s="1">
         <v>8.8866669999999992</v>
@@ -9946,13 +9940,13 @@
         <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>247</v>
+        <v>489</v>
       </c>
       <c r="G183" s="1">
         <v>7.9377779999999998</v>
@@ -9985,13 +9979,13 @@
         <v>6</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>248</v>
+        <v>490</v>
       </c>
       <c r="G184" s="1">
         <v>8.3244439999999997</v>
@@ -10024,13 +10018,13 @@
         <v>6</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="G185" s="1">
         <v>10.365556</v>
@@ -10063,13 +10057,13 @@
         <v>6</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>427</v>
+        <v>292</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>249</v>
+        <v>492</v>
       </c>
       <c r="G186" s="1">
         <v>9.8133330000000001</v>
@@ -10102,13 +10096,13 @@
         <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>428</v>
+        <v>293</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>250</v>
+        <v>493</v>
       </c>
       <c r="G187" s="1">
         <v>10.72</v>
@@ -10141,13 +10135,13 @@
         <v>6</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="G188" s="1">
         <v>7.72</v>
@@ -10180,13 +10174,13 @@
         <v>6</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>251</v>
+        <v>495</v>
       </c>
       <c r="G189" s="1">
         <v>8.5122219999999995</v>
@@ -10219,13 +10213,13 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>431</v>
+        <v>296</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="G190" s="1">
         <v>7.0111109999999996</v>
@@ -10258,13 +10252,13 @@
         <v>6</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="G191" s="1">
         <v>8.7200000000000006</v>
@@ -10297,13 +10291,13 @@
         <v>6</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>433</v>
+        <v>298</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>252</v>
+        <v>498</v>
       </c>
       <c r="G192" s="1">
         <v>10.48</v>
@@ -10336,13 +10330,13 @@
         <v>6</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>434</v>
+        <v>299</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="G193" s="1">
         <v>11.698888999999999</v>
@@ -10375,13 +10369,13 @@
         <v>6</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>435</v>
+        <v>300</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>253</v>
+        <v>499</v>
       </c>
       <c r="G194" s="1">
         <v>7.3855560000000002</v>
@@ -10414,13 +10408,13 @@
         <v>6</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>436</v>
+        <v>301</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="G195" s="1">
         <v>8.0222219999999993</v>
@@ -10453,13 +10447,13 @@
         <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>437</v>
+        <v>302</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>254</v>
+        <v>501</v>
       </c>
       <c r="G196" s="1">
         <v>9.855556</v>
@@ -10492,13 +10486,13 @@
         <v>6</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>438</v>
+        <v>303</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G197" s="1">
         <v>6.7088890000000001</v>
@@ -10531,13 +10525,13 @@
         <v>6</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="G198" s="1">
         <v>8.4911110000000001</v>
@@ -10570,13 +10564,13 @@
         <v>6</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>255</v>
+        <v>504</v>
       </c>
       <c r="G199" s="1">
         <v>9.0522220000000004</v>
@@ -10609,13 +10603,13 @@
         <v>6</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>256</v>
+        <v>505</v>
       </c>
       <c r="G200" s="1">
         <v>9.7088889999999992</v>
@@ -10648,13 +10642,13 @@
         <v>6</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>441</v>
+        <v>306</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G201" s="1">
         <v>9.8033330000000003</v>
@@ -10687,13 +10681,13 @@
         <v>6</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>442</v>
+        <v>307</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>257</v>
+        <v>507</v>
       </c>
       <c r="G202" s="1">
         <v>9.2722219999999993</v>
@@ -10726,13 +10720,13 @@
         <v>6</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>443</v>
+        <v>308</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>258</v>
+        <v>508</v>
       </c>
       <c r="G203" s="1">
         <v>8.9488889999999994</v>
@@ -10765,13 +10759,13 @@
         <v>6</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>444</v>
+        <v>309</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G204" s="1">
         <v>8.1677780000000002</v>
@@ -10804,13 +10798,13 @@
         <v>6</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>445</v>
+        <v>310</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>259</v>
+        <v>510</v>
       </c>
       <c r="G205" s="1">
         <v>7.73</v>
@@ -10843,13 +10837,13 @@
         <v>6</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>446</v>
+        <v>311</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>260</v>
+        <v>511</v>
       </c>
       <c r="G206" s="1">
         <v>10.032222000000001</v>
@@ -10882,13 +10876,13 @@
         <v>6</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>447</v>
+        <v>312</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G207" s="1">
         <v>7.9488890000000003</v>
@@ -10924,10 +10918,10 @@
         <v>82</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>261</v>
+        <v>513</v>
       </c>
       <c r="G208" s="1">
         <v>7.5944440000000002</v>
@@ -10960,13 +10954,13 @@
         <v>6</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G209" s="1">
         <v>9.1577780000000004</v>
@@ -10999,13 +10993,13 @@
         <v>6</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>262</v>
+        <v>515</v>
       </c>
       <c r="G210" s="1">
         <v>9.8033330000000003</v>
@@ -11038,13 +11032,13 @@
         <v>6</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G211" s="1">
         <v>7.6155559999999998</v>
@@ -11077,13 +11071,13 @@
         <v>6</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>263</v>
+        <v>517</v>
       </c>
       <c r="G212" s="1">
         <v>10.272221999999999</v>
@@ -11116,13 +11110,13 @@
         <v>6</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>449</v>
+        <v>314</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G213" s="1">
         <v>8.6044440000000009</v>
@@ -11155,13 +11149,13 @@
         <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G214" s="1">
         <v>9.0011109999999999</v>
@@ -11194,13 +11188,13 @@
         <v>6</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>264</v>
+        <v>520</v>
       </c>
       <c r="G215" s="1">
         <v>6.5433329999999996</v>
@@ -11233,13 +11227,13 @@
         <v>6</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>450</v>
+        <v>315</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>265</v>
+        <v>521</v>
       </c>
       <c r="G216" s="1">
         <v>8.4388889999999996</v>
@@ -11272,13 +11266,13 @@
         <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>451</v>
+        <v>316</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="G217" s="1">
         <v>5.9177780000000002</v>
@@ -11311,13 +11305,13 @@
         <v>6</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="G218" s="1">
         <v>10.741111</v>
@@ -11353,10 +11347,10 @@
         <v>85</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G219" s="1">
         <v>8.5944439999999993</v>
@@ -11389,13 +11383,13 @@
         <v>6</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G220" s="1">
         <v>7.605556</v>
@@ -11428,13 +11422,13 @@
         <v>6</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>452</v>
+        <v>317</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>267</v>
+        <v>525</v>
       </c>
       <c r="G221" s="1">
         <v>8.2355560000000008</v>
